--- a/docs/cda-logical-model/StructureDefinition-RegionOfInterest.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-RegionOfInterest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:52:41+01:00</t>
+    <t>2023-02-07T19:43:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,7 +91,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -236,6 +236,10 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base for all types and resources</t>
@@ -333,10 +337,6 @@
   </si>
   <si>
     <t>RegionOfInterest.subject.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -946,42 +946,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.58984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="55.58984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.8984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.84375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="54.84375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="62.7265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.72265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="55.58984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.98046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="54.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1125,13 +1125,13 @@
         <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1182,13 +1182,13 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>72</v>
@@ -1197,15 +1197,15 @@
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>73</v>
@@ -1228,7 +1228,7 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1281,10 +1281,10 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>73</v>
@@ -1301,10 +1301,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1327,18 +1327,18 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S4" t="s" s="2">
         <v>72</v>
@@ -1356,11 +1356,11 @@
         <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>72</v>
@@ -1378,7 +1378,7 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1424,18 +1424,18 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S5" t="s" s="2">
         <v>72</v>
@@ -1453,11 +1453,11 @@
         <v>72</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>72</v>
@@ -1475,7 +1475,7 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>73</v>
@@ -1495,10 +1495,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1506,10 +1506,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>72</v>
@@ -1521,7 +1521,7 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1574,13 +1574,13 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>72</v>
@@ -1594,10 +1594,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>73</v>
@@ -1620,7 +1620,7 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1673,10 +1673,10 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>73</v>
@@ -1693,10 +1693,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1704,10 +1704,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
@@ -1719,11 +1719,11 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1774,13 +1774,13 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1808,7 +1808,7 @@
         <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>72</v>
@@ -1820,7 +1820,7 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1873,13 +1873,13 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>72</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1919,7 +1919,7 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1972,7 +1972,7 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2006,7 +2006,7 @@
         <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>72</v>
@@ -2018,7 +2018,7 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2071,13 +2071,13 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>72</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>73</v>
@@ -2117,7 +2117,7 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -2170,10 +2170,10 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>73</v>
@@ -2182,7 +2182,7 @@
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>72</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
@@ -2216,7 +2216,7 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>105</v>
@@ -2276,7 +2276,7 @@
         <v>107</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>73</v>
@@ -2288,7 +2288,7 @@
         <v>72</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -2304,10 +2304,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>72</v>
@@ -2381,10 +2381,10 @@
         <v>117</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>72</v>
@@ -2393,7 +2393,7 @@
         <v>118</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -2424,7 +2424,7 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2453,7 +2453,7 @@
         <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
@@ -2521,7 +2521,7 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2550,7 +2550,7 @@
         <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -2672,7 +2672,7 @@
         <v>125</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
@@ -2799,10 +2799,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>72</v>
@@ -2870,10 +2870,10 @@
         <v>131</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>72</v>
@@ -2898,10 +2898,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>72</v>
@@ -2969,10 +2969,10 @@
         <v>133</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>72</v>
@@ -2997,10 +2997,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
@@ -3068,10 +3068,10 @@
         <v>135</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>72</v>
@@ -3096,10 +3096,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>72</v>
@@ -3111,7 +3111,7 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3167,16 +3167,16 @@
         <v>137</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>72</v>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>73</v>
@@ -3210,7 +3210,7 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>105</v>
@@ -3270,7 +3270,7 @@
         <v>107</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>73</v>
@@ -3282,7 +3282,7 @@
         <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -3298,10 +3298,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -3375,10 +3375,10 @@
         <v>117</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
@@ -3387,7 +3387,7 @@
         <v>118</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
@@ -3418,7 +3418,7 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -3447,7 +3447,7 @@
         <v>72</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
@@ -3515,7 +3515,7 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -3544,7 +3544,7 @@
         <v>72</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
@@ -3668,7 +3668,7 @@
         <v>144</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>73</v>
@@ -3767,7 +3767,7 @@
         <v>146</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>73</v>
@@ -3795,10 +3795,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>72</v>
@@ -3866,10 +3866,10 @@
         <v>148</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>72</v>
@@ -3894,10 +3894,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>72</v>
@@ -3909,7 +3909,7 @@
         <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -3965,10 +3965,10 @@
         <v>150</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>72</v>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>73</v>
@@ -4008,7 +4008,7 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>105</v>
@@ -4068,7 +4068,7 @@
         <v>107</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>73</v>
@@ -4080,7 +4080,7 @@
         <v>72</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -4096,10 +4096,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>72</v>
@@ -4173,10 +4173,10 @@
         <v>117</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>72</v>
@@ -4185,7 +4185,7 @@
         <v>118</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -4216,7 +4216,7 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>73</v>
@@ -4371,7 +4371,7 @@
         <v>155</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>73</v>
@@ -4513,7 +4513,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -4569,7 +4569,7 @@
         <v>159</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>73</v>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -4668,7 +4668,7 @@
         <v>160</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>73</v>
@@ -4767,7 +4767,7 @@
         <v>161</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>73</v>
@@ -4795,7 +4795,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>73</v>
@@ -4866,7 +4866,7 @@
         <v>163</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>73</v>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>73</v>
@@ -4965,7 +4965,7 @@
         <v>165</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>73</v>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>73</v>
@@ -5064,7 +5064,7 @@
         <v>167</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>73</v>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
@@ -5163,7 +5163,7 @@
         <v>169</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -5262,7 +5262,7 @@
         <v>171</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -5361,7 +5361,7 @@
         <v>173</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>73</v>
@@ -5460,7 +5460,7 @@
         <v>175</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>73</v>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>73</v>
@@ -5559,7 +5559,7 @@
         <v>177</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>73</v>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>73</v>
@@ -5658,7 +5658,7 @@
         <v>179</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>73</v>
@@ -5686,10 +5686,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>72</v>
@@ -5701,7 +5701,7 @@
         <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -5757,16 +5757,16 @@
         <v>181</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>72</v>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>73</v>
@@ -5800,7 +5800,7 @@
         <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>105</v>
@@ -5860,7 +5860,7 @@
         <v>107</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>73</v>
@@ -5872,7 +5872,7 @@
         <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
@@ -5888,10 +5888,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>72</v>
@@ -5965,10 +5965,10 @@
         <v>117</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>72</v>
@@ -5977,7 +5977,7 @@
         <v>118</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
@@ -6008,7 +6008,7 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>73</v>
@@ -6163,7 +6163,7 @@
         <v>185</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>73</v>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -6262,7 +6262,7 @@
         <v>186</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>73</v>
@@ -6290,7 +6290,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -6361,7 +6361,7 @@
         <v>188</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>73</v>
@@ -6460,7 +6460,7 @@
         <v>190</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>73</v>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>73</v>
@@ -6559,7 +6559,7 @@
         <v>192</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>73</v>
@@ -6587,10 +6587,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>72</v>
@@ -6658,10 +6658,10 @@
         <v>194</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>72</v>

--- a/docs/cda-logical-model/StructureDefinition-RegionOfInterest.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-RegionOfInterest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-sd-202312-matchbox-patch</t>
+    <t>2.0.0-sd-202406-matchbox-patch</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:28:21+01:00</t>
+    <t>2024-06-19T17:47:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 International - Structured Documents (http://www.hl7.org/Special/committees/structure, structdog@lists.HL7.org)</t>
   </si>
   <si>
     <t>Description</t>
@@ -402,7 +402,7 @@
     <t>EVN</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActMood</t>
+    <t>http://hl7.org/cda/stds/core/ValueSet/CDAActMood</t>
   </si>
   <si>
     <t>RegionOfInterest.id</t>
